--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_30.07.24v_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,607 +505,8339 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701312.955722</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701313.3748024</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701312.955722.png</t>
+          <t>1731880241.679366</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701313.3748024.png</t>
+          <t>1731880242.4811957</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880241.679366.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880242.4811957.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3024.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3023.8</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0.7999999999997272</v>
+        <v>291.68</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03</v>
+        <v>291.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2800000000000296</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701313.9133906</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731701314.5287168</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701313.9133906.png</t>
+          <t>1731880242.5520349</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701314.5287168.png</t>
+          <t>1731880242.76743</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880242.5520349.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880242.76743.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3021.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3022.9</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>1.550000000000182</v>
+        <v>291.33</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05</v>
+        <v>291.64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3100000000000023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731701314.5676126</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731701314.7329392</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701314.5676126.png</t>
+          <t>1731880243.3469083</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701314.7329392.png</t>
+          <t>1731880244.050001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBER1731880243.3469083.png</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3023.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3022.2</v>
+          <t>./test_images/SBER1731880244.050001.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>1.75</v>
+        <v>291.36</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06</v>
+        <v>291.21</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1500000000000341</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731701315.044107</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731701315.5497549</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.044107.png</t>
+          <t>1731880244.0979013</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.5497549.png</t>
+          <t>1731880244.2494957</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880244.0979013.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880244.2494957.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3024.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3024.65</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0.25</v>
+        <v>291.24</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01</v>
+        <v>291.17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731701315.5627203</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731701315.6355255</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.5627203.png</t>
+          <t>1731880244.2883666</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.6355255.png</t>
+          <t>1731880244.3591757</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880244.2883666.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880244.3591757.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>3024.65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3024.6</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>-0.0500000000001819</v>
+        <v>291.15</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>291.22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.07000000000005002</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731701315.69736</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731701315.8344352</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.69736.png</t>
+          <t>1731880244.4309847</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.8344352.png</t>
+          <t>1731880244.713261</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880244.4309847.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880244.713261.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3024.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3024.8</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>0.25</v>
+        <v>291.16</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01</v>
+        <v>291.23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731701315.9940085</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731701316.1077344</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701315.9940085.png</t>
+          <t>1731880244.727194</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701316.1077344.png</t>
+          <t>1731880244.8548782</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880244.727194.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880244.8548782.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3025.15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3025</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>0.1500000000000909</v>
+        <v>291.23</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>291.05</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731701316.37003</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1731701316.4548047</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701316.37003.png</t>
+          <t>1731880244.8688414</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701316.4548047.png</t>
+          <t>1731880244.965582</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBER1731880244.8688414.png</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3027</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3019.8</v>
+          <t>./test_images/SBER1731880244.965582.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>7.199999999999818</v>
+        <v>291.05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.24</v>
+        <v>291.16</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1731701316.4687657</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1731701317.2685997</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701316.4687657.png</t>
+          <t>1731880245.632773</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701317.2685997.png</t>
+          <t>1731880245.6796477</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880245.632773.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880245.6796477.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>3019.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3019.95</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>0.1499999999996362</v>
+        <v>291.12</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>291.14</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1731701317.3583598</t>
-        </is>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1731701317.885949</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701317.3583598.png</t>
+          <t>1731880245.6936104</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701317.885949.png</t>
+          <t>1731880246.200256</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731880245.6936104.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.200256.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3020.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3019.45</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>1.5</v>
+        <v>291.14</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05</v>
+        <v>291.16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.02000000000003865</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731880246.21824</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731880246.3737948</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.21824.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.3737948.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>291.16</v>
+      </c>
+      <c r="L13" t="n">
+        <v>291.16</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731880246.3877518</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731880246.436654</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.3877518.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.436654.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>291.16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>291.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1500000000000341</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731880246.4506264</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731880247.3950877</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880246.4506264.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880247.3950877.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>291.01</v>
+      </c>
+      <c r="L15" t="n">
+        <v>290.59</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731880247.4658716</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731880247.6144745</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880247.4658716.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880247.6144745.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>290.63</v>
+      </c>
+      <c r="L16" t="n">
+        <v>290.61</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731880247.7381713</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731880247.8738084</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880247.7381713.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880247.8738084.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>290.67</v>
+      </c>
+      <c r="L17" t="n">
+        <v>290.56</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731880248.0313606</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731880248.5948548</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880248.0313606.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880248.5948548.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>290.66</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.160000000000025</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731880249.2750623</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731880249.2750623.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>290.22</v>
+      </c>
+      <c r="L19" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.82000000000005</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731880251.6038377</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731880252.3229175</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880251.6038377.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880252.3229175.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>132.69</v>
+      </c>
+      <c r="L20" t="n">
+        <v>132.81</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731880252.3687656</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731880252.8245745</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880252.3687656.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880252.8245745.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>132.81</v>
+      </c>
+      <c r="L21" t="n">
+        <v>132.81</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731880253.0838552</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731880253.7032266</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880253.0838552.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880253.7032266.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>132.53</v>
+      </c>
+      <c r="L22" t="n">
+        <v>132.53</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731880254.1719732</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731880254.5320091</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880254.1719732.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880254.5320091.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>132.58</v>
+      </c>
+      <c r="L23" t="n">
+        <v>132.54</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731880254.5469885</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731880254.6267571</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880254.5469885.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880254.6267571.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>132.54</v>
+      </c>
+      <c r="L24" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731880254.7065442</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731880255.338826</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880254.7065442.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880255.338826.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>132.52</v>
+      </c>
+      <c r="L25" t="n">
+        <v>132.41</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.1100000000000136</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731880255.807601</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731880256.5396168</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880255.807601.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880256.5396168.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>132.42</v>
+      </c>
+      <c r="L26" t="n">
+        <v>132.42</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731880256.613421</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731880256.9684708</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880256.613421.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880256.9684708.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>132.39</v>
+      </c>
+      <c r="L27" t="n">
+        <v>132.43</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731880257.6187315</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731880257.8102233</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880257.6187315.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880257.8102233.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>132.31</v>
+      </c>
+      <c r="L28" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731880258.5592458</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731880258.5592458.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>132.28</v>
+      </c>
+      <c r="L29" t="n">
+        <v>132.29</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731880259.7151585</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731880260.403293</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880259.7151585.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880260.403293.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>6798</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6801</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731880260.9957066</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731880261.0904555</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880260.9957066.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880261.0904555.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>6794.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6800</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731880261.3188705</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731880262.7939262</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880261.3188705.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880262.7939262.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6803</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6810.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731880262.8617437</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731880264.0465534</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880262.8617437.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880264.0465534.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6804.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6803</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731880264.195153</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731880264.787602</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880264.195153.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880264.787602.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6804.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6803</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731880264.9342065</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731880265.3381305</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880264.9342065.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880265.3381305.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>6806.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6803.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731880265.9943752</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731880265.9943752.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6801</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6802.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731880266.5019908</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731880267.547197</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880266.5019908.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880267.547197.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>510.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731880269.328434</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731880270.9800448</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880269.328434.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880270.9800448.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>511.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>512</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731880271.0219338</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731880271.3201373</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880271.0219338.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880271.3201373.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>511.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>512.05</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2499999999999432</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731880272.6226547</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731880272.6226547.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>511.75</v>
+      </c>
+      <c r="L40" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731880274.758944</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731880276.4444451</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880274.758944.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880276.4444451.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1048.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1045</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-3.599999999999909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731880276.5910466</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731880277.4856553</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880276.5910466.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880277.4856553.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1046.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731880277.8995497</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731880278.2456243</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880277.8995497.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880278.2456243.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1048.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1046.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731880278.2605565</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731880278.4251444</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880278.2605565.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880278.4251444.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1046.8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1046.4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.3999999999998636</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731880278.8809028</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731880279.3755758</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880278.8809028.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880279.3755758.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731880280.080694</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731880281.4301124</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880280.080694.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880281.4301124.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1044.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1044.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731880282.0115578</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731880282.0115578.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1046.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731880282.7655532</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731880283.1594975</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880282.7655532.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.1594975.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="L48" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731880283.2283137</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731880283.3460014</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.2283137.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.3460014.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="L49" t="n">
+        <v>127.26</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1199999999999903</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731880283.3669431</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731880283.4836595</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.3669431.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.4836595.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>127.26</v>
+      </c>
+      <c r="L50" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731880283.5504808</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731880283.7180052</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.5504808.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880283.7180052.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>127.34</v>
+      </c>
+      <c r="L51" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731880284.0301704</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731880284.6295686</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880284.0301704.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880284.6295686.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="L52" t="n">
+        <v>127.42</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731880284.643533</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731880284.707361</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880284.643533.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880284.707361.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>127.42</v>
+      </c>
+      <c r="L53" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731880284.7472563</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731880285.263873</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880284.7472563.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.263873.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>127.46</v>
+      </c>
+      <c r="L54" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.05999999999998806</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731880285.2778378</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731880285.340669</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.2778378.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.340669.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731880285.3556292</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731880285.3955235</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.3556292.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.3955235.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="L56" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731880285.4104834</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731880285.4493787</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.4104834.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.4493787.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="L57" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731880285.637876</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731880285.7615702</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.637876.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.7615702.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>127.46</v>
+      </c>
+      <c r="L58" t="n">
+        <v>127.46</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731880285.9101467</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731880286.2562222</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880285.9101467.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880286.2562222.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731880286.3021002</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731880286.9673193</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880286.3021002.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880286.9673193.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="L60" t="n">
+        <v>127.62</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731880288.724622</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731880288.724622.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="L61" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731880290.4809556</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731880290.9875782</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880290.4809556.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880290.9875782.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>166.12</v>
+      </c>
+      <c r="L62" t="n">
+        <v>166.02</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731880291.373543</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731880291.7016668</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880291.373543.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880291.7016668.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>166.24</v>
+      </c>
+      <c r="L63" t="n">
+        <v>166.08</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731880292.033779</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731880292.729916</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880292.033779.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880292.729916.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>166.54</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.2399999999999807</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731880292.7698116</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731880292.887497</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880292.7698116.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880292.887497.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>166.54</v>
+      </c>
+      <c r="L65" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.1799999999999784</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731880292.9034526</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731880293.1787188</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880292.9034526.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880293.1787188.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="L66" t="n">
+        <v>166.36</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731880294.5211298</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731880295.5105116</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880294.5211298.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880295.5105116.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>166</v>
+      </c>
+      <c r="L67" t="n">
+        <v>165.76</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731880295.7887397</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731880295.7887397.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>165.76</v>
+      </c>
+      <c r="L68" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.07999999999998408</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731880295.957317</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731880296.3382714</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880295.957317.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880296.3382714.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>51.675</v>
+      </c>
+      <c r="L69" t="n">
+        <v>51.755</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.0800000000000054</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731880296.4868743</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731880296.938668</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880296.4868743.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880296.938668.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="L70" t="n">
+        <v>51.635</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.105000000000004</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731880297.6168551</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731880297.9420128</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880297.6168551.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880297.9420128.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>51.585</v>
+      </c>
+      <c r="L71" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731880298.034738</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731880298.1015615</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.034738.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.1015615.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="L72" t="n">
+        <v>51.595</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731880298.1773567</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731880298.2461731</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.1773567.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.2461731.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>51.58</v>
+      </c>
+      <c r="L73" t="n">
+        <v>51.655</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.07500000000000284</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731880298.4047503</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731880298.9991605</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.4047503.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880298.9991605.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>51.665</v>
+      </c>
+      <c r="L74" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.005000000000002558</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731880299.0141184</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731880299.0819376</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.0141184.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.0819376.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="L75" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731880299.1497588</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731880299.3761504</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.1497588.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.3761504.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>51.635</v>
+      </c>
+      <c r="L76" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731880299.4429717</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731880299.6394477</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.4429717.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.6394477.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>51.665</v>
+      </c>
+      <c r="L77" t="n">
+        <v>51.635</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731880299.7402055</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731880299.831932</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.7402055.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.831932.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="L78" t="n">
+        <v>51.645</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.005000000000002558</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731880299.899779</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731880301.1673636</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880299.899779.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880301.1673636.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>51.555</v>
+      </c>
+      <c r="L79" t="n">
+        <v>51.465</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731880301.3598762</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731880301.7847133</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880301.3598762.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880301.7847133.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731880301.8256054</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731880302.572609</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880301.8256054.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731880302.572609.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="L81" t="n">
+        <v>51.445</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731880304.6959317</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731880306.1141412</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880304.6959317.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880306.1141412.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1421.8</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1421.8</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731880306.3305619</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731880306.618793</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880306.3305619.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880306.618793.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1422</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1422</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731880306.99778</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731880307.2830162</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880306.99778.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880307.2830162.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1421.8</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1421.4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.3999999999998636</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731880307.6689854</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731880307.6689854.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1420.4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1420</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731880311.1506793</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731880311.3162363</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880311.1506793.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880311.3162363.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>60.63</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731880311.8019388</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731880312.2258053</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880311.8019388.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880312.2258053.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>60.44</v>
+      </c>
+      <c r="L87" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731880312.873077</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731880313.1403625</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880312.873077.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880313.1403625.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="L88" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731880313.561235</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731880314.4887543</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880313.561235.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880314.4887543.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="L89" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731880315.5788414</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731880316.501377</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880315.5788414.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880316.501377.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731880317.362102</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731880317.362102.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>60.44</v>
+      </c>
+      <c r="L91" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731880319.273966</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731880319.273966.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="L92" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731880319.3766918</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731880319.572169</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.3766918.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.572169.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>141.16</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731880319.7357302</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731880319.7985647</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.7357302.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.7985647.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>141.24</v>
+      </c>
+      <c r="L94" t="n">
+        <v>141.14</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731880319.8145235</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731880319.9351974</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.8145235.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.9351974.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>141.14</v>
+      </c>
+      <c r="L95" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731880319.9501557</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731880320.3211691</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880319.9501557.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880320.3211691.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="L96" t="n">
+        <v>141.14</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731880320.3630538</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731880320.5914438</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880320.3630538.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880320.5914438.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="L97" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731880320.6073995</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731880323.080835</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880320.6073995.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880323.080835.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="L98" t="n">
+        <v>141.36</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.1400000000000148</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731880323.8417885</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731880323.8417885.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="L99" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731880327.74538</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731880327.8819911</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880327.74538.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880327.8819911.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="L100" t="n">
+        <v>53.98</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731880328.1602454</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731880328.648942</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880328.1602454.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880328.648942.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="L101" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.05000000000000426</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731880329.6981378</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731880331.6479518</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880329.6981378.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880331.6479518.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>53.93</v>
+      </c>
+      <c r="L102" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731880333.729361</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731880333.729361.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>53.57</v>
+      </c>
+      <c r="L103" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731880334.6966918</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1731880334.9968605</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880334.6966918.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880334.9968605.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>375.33</v>
+      </c>
+      <c r="L104" t="n">
+        <v>375.15</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.1800000000000068</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731880335.3189995</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731880335.8037066</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880335.3189995.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880335.8037066.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>375.69</v>
+      </c>
+      <c r="L105" t="n">
+        <v>375.16</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.5299999999999727</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731880338.2112687</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1731880338.60721</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880338.2112687.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880338.60721.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>374.55</v>
+      </c>
+      <c r="L106" t="n">
+        <v>374.84</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.2899999999999636</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731880339.841784</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731880341.9780715</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880339.841784.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731880341.9780715.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>374</v>
+      </c>
+      <c r="L107" t="n">
+        <v>371.95</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-2.050000000000011</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.5499999999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731880343.2317634</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731880343.4801252</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731880343.2317634.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731880343.4801252.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0.09718</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.09742000000000001</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0002400000000000041</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1731701318.49036</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701318.49036.png</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731880344.5901592</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731880345.0309536</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880344.5901592.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880345.0309536.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>3024.6</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3023.8</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.7999999999997272</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731880345.6064167</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731880346.293577</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880345.6064167.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880346.293577.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>3021.35</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3022.9</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.550000000000182</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731880346.3364904</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731880346.5169818</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880346.3364904.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880346.5169818.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>3023.95</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3022.2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731880346.8590655</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731880347.4046352</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880346.8590655.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880347.4046352.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>3024.9</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3024.65</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731880347.4205642</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731880347.4863904</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880347.4205642.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880347.4863904.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>3024.65</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3024.6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.0500000000001819</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731880347.552216</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1731880347.824488</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880347.552216.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880347.824488.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>3024.55</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3024.8</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731880348.0209622</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731880348.1745527</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880348.0209622.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880348.1745527.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>3025.15</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3025</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.1500000000000909</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731880348.4538043</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731880348.5475829</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880348.4538043.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880348.5475829.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>3027</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3019.8</v>
+      </c>
+      <c r="M116" t="n">
+        <v>7.199999999999818</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731880348.5665028</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731880349.5500016</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880348.5665028.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880349.5500016.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>3019.8</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3019.95</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.1499999999996362</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731880349.6497066</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731880350.2301576</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880349.6497066.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880350.2301576.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>3020.95</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3019.45</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731880350.9243312</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731880350.9243312.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>3018.55</v>
       </c>
-      <c r="J13" t="n">
-        <v>3018.55</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L119" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731880352.2268207</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731880353.7567565</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880352.2268207.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880353.7567565.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="L120" t="n">
+        <v>34.485</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.07500000000000284</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731880354.0090559</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731880356.1862366</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880354.0090559.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880356.1862366.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="L121" t="n">
+        <v>34.525</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731880356.8943431</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731880358.6227498</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880356.8943431.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880358.6227498.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>34.545</v>
+      </c>
+      <c r="L122" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-0.115000000000002</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731880358.7204885</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731880358.7204885.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>34.465</v>
+      </c>
+      <c r="L123" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731880359.8594441</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731880360.0718515</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880359.8594441.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.0718515.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="L124" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.09999999999990905</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731880360.1885645</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731880360.69521</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.1885645.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.69521.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="M125" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731880360.7121398</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1731880360.9116316</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.7121398.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.9116316.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1731880360.927589</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1731880361.035303</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880360.927589.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.035303.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1731880361.0512583</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1731880361.0981336</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.0512583.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.0981336.png</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1731880361.1140962</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1731880361.1669555</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.1140962.png</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.1669555.png</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.09999999999990905</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1731880361.1829066</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1731880361.5997922</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.1829066.png</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.5997922.png</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1731880361.6775908</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1731880361.894977</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.6775908.png</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.894977.png</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1731880361.910932</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1731880361.9897494</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.910932.png</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880361.9897494.png</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1731880362.0077057</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1731880362.8195062</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880362.0077057.png</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880362.8195062.png</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>640.7</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>132</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1731880362.83649</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1731880363.0010183</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880362.83649.png</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.0010183.png</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>640.7</v>
+      </c>
+      <c r="L134" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1731880363.0688653</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1731880363.3600588</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.0688653.png</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.3600588.png</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.1999999999999318</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
+        <v>134</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1731880363.4059389</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1731880363.7430367</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.4059389.png</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.7430367.png</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="L136" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
+        <v>135</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1731880363.7600243</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1731880364.259682</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880363.7600243.png</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.259682.png</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="L137" t="n">
+        <v>640</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
+        <v>136</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1731880364.27661</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1731880364.3314905</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.27661.png</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.3314905.png</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>640</v>
+      </c>
+      <c r="L138" t="n">
+        <v>640</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
+        <v>137</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1731880364.3474212</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1731880364.3903048</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.3474212.png</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.3903048.png</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>640</v>
+      </c>
+      <c r="L139" t="n">
+        <v>640</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1731880364.4062645</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1731880365.04259</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880364.4062645.png</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.04259.png</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>640</v>
+      </c>
+      <c r="L140" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>139</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1731880365.0595443</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1731880365.102433</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.0595443.png</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.102433.png</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>640.2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>640.3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.09999999999990905</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1731880365.249041</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1731880365.4574523</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.249041.png</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.4574523.png</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
+        <v>141</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1731880365.504327</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1731880365.904259</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.504327.png</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.904259.png</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="L143" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
+        <v>142</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1731880365.9710817</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1731880366.0648289</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880365.9710817.png</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880366.0648289.png</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>143</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1731880366.0807917</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1731880366.1775272</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880366.0807917.png</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880366.1775272.png</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
+        <v>144</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1731880366.1935134</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1731880366.386996</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880366.1935134.png</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880366.386996.png</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="L146" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1731880367.406244</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731880367.406244.png</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="L147" t="n">
+        <v>640.6</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +8852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,42 +8895,416 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.54999999999927</v>
+        <v>1.299999999999841</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>1.231818181818116</v>
+        <v>0.05416666666666003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.008235294117646256</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7399999999999807</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05285714285714148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.003076923076923558</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.04999999999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.14999999999918</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.195454545454471</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.001999999999998181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.204170427930421e-18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.03999999999996362</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.005714285714280517</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03999999999996362</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005714285714280517</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04000000000000005</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.399999999999636</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3428571428570909</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3699999999999903</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06166666666666506</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2700000000000031</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.06750000000000078</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02250000000000085</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.9000000000000341</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2250000000000085</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.050000000000068</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2625000000000171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0002400000000000041</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0002400000000000041</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
